--- a/txts/result_1.xlsx
+++ b/txts/result_1.xlsx
@@ -532,10 +532,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>第12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2024年（第12届）“泰迪杯”数据挖掘挑战赛</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>“泰迪杯”数据挖掘挑战赛</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>2024年2月10日</t>
@@ -745,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://aiic.china61.org.cn/“”</t>
+          <t>https://aiic.china61.org.cn</t>
         </is>
       </c>
     </row>
